--- a/NTC_10K.xlsx
+++ b/NTC_10K.xlsx
@@ -53,7 +53,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -75,6 +75,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +142,921 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Сопротивление</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5326</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8055</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12490</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15710</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32660</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42340</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вольты</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.319239454430494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.368230277185501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.425435540069686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.491728363543528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.568664128455554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.657463164638053</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75880178653935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.873886193206881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0032293986637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.14679629387968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.30387127994193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.47225145389089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.83268119164073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.01645274212369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.19632107023411</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.36779661016949</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.52644163150492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66950706916316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.79494949494949</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.90231381055676</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.99193427931292</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.06495726495726</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.12352941176471</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.16962705436157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>396.243880408274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>457.051883439943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>528.05574912892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>610.339205174028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>705.83280913756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>816.051249199231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>941.833975050054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1084.6781355683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1245.22048997773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1423.4174605246</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1618.38083716429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1827.37635004154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2274.74610938195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2502.84558537534</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2726.10033444816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2938.93785310734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3135.84997655884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3313.42453190676</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3469.12519130701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3602.38708122439</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3713.62509335325</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3804.26210826211</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3876.96256684492</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3934.17951959545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="63725369"/>
+        <c:axId val="15260836"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63725369"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15260836"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="15260836"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63725369"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8042400" y="847800"/>
+        <a:ext cx="5755680" cy="3238200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -145,34 +1064,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:H28"/>
+  <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
@@ -185,16 +1105,16 @@
       <c r="D4" s="0" t="n">
         <v>1071</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <f aca="false">D4/($B$5+D4)*$B$4</f>
         <v>0.319239454430494</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">F4 / ($B$4/$B$6)</f>
+      <c r="F4" s="1" t="n">
+        <f aca="false">E4 / ($B$4/$B$6)</f>
         <v>396.243880408274</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
@@ -207,16 +1127,16 @@
       <c r="D5" s="0" t="n">
         <v>1256</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <f aca="false">D5/($B$5+D5)*$B$4</f>
         <v>0.368230277185501</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">F5 / ($B$4/$B$6)</f>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5 / ($B$4/$B$6)</f>
         <v>457.051883439943</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
@@ -229,364 +1149,364 @@
       <c r="D6" s="0" t="n">
         <v>1480</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <f aca="false">D6/($B$5+D6)*$B$4</f>
         <v>0.425435540069686</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">F6 / ($B$4/$B$6)</f>
+      <c r="F6" s="1" t="n">
+        <f aca="false">E6 / ($B$4/$B$6)</f>
         <v>528.05574912892</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1751</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <f aca="false">D7/($B$5+D7)*$B$4</f>
         <v>0.491728363543528</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">F7 / ($B$4/$B$6)</f>
+      <c r="F7" s="1" t="n">
+        <f aca="false">E7 / ($B$4/$B$6)</f>
         <v>610.339205174028</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2082</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <f aca="false">D8/($B$5+D8)*$B$4</f>
         <v>0.568664128455554</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">F8 / ($B$4/$B$6)</f>
+      <c r="F8" s="1" t="n">
+        <f aca="false">E8 / ($B$4/$B$6)</f>
         <v>705.83280913756</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2488</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <f aca="false">D9/($B$5+D9)*$B$4</f>
         <v>0.657463164638053</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">F9 / ($B$4/$B$6)</f>
+      <c r="F9" s="1" t="n">
+        <f aca="false">E9 / ($B$4/$B$6)</f>
         <v>816.051249199231</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <v>55</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2986</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <f aca="false">D10/($B$5+D10)*$B$4</f>
         <v>0.75880178653935</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">F10 / ($B$4/$B$6)</f>
+      <c r="F10" s="1" t="n">
+        <f aca="false">E10 / ($B$4/$B$6)</f>
         <v>941.833975050054</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3602</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <f aca="false">D11/($B$5+D11)*$B$4</f>
         <v>0.873886193206881</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">F11 / ($B$4/$B$6)</f>
+      <c r="F11" s="1" t="n">
+        <f aca="false">E11 / ($B$4/$B$6)</f>
         <v>1084.6781355683</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4368</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <f aca="false">D12/($B$5+D12)*$B$4</f>
         <v>1.0032293986637</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">F12 / ($B$4/$B$6)</f>
+      <c r="F12" s="1" t="n">
+        <f aca="false">E12 / ($B$4/$B$6)</f>
         <v>1245.22048997773</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5326</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <f aca="false">D13/($B$5+D13)*$B$4</f>
         <v>1.14679629387968</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">F13 / ($B$4/$B$6)</f>
+      <c r="F13" s="1" t="n">
+        <f aca="false">E13 / ($B$4/$B$6)</f>
         <v>1423.4174605246</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6532</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <f aca="false">D14/($B$5+D14)*$B$4</f>
         <v>1.30387127994193</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">F14 / ($B$4/$B$6)</f>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14 / ($B$4/$B$6)</f>
         <v>1618.38083716429</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>8055</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <f aca="false">D15/($B$5+D15)*$B$4</f>
         <v>1.47225145389089</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">F15 / ($B$4/$B$6)</f>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15 / ($B$4/$B$6)</f>
         <v>1827.37635004154</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <f aca="false">D16/($B$5+D16)*$B$4</f>
         <v>1.65</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">F16 / ($B$4/$B$6)</f>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16 / ($B$4/$B$6)</f>
         <v>2048</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>12490</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <f aca="false">D17/($B$5+D17)*$B$4</f>
         <v>1.83268119164073</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">F17 / ($B$4/$B$6)</f>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17 / ($B$4/$B$6)</f>
         <v>2274.74610938195</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>15710</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <f aca="false">D18/($B$5+D18)*$B$4</f>
         <v>2.01645274212369</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">F18 / ($B$4/$B$6)</f>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18 / ($B$4/$B$6)</f>
         <v>2502.84558537534</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>19900</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <f aca="false">D19/($B$5+D19)*$B$4</f>
         <v>2.19632107023411</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">F19 / ($B$4/$B$6)</f>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E19 / ($B$4/$B$6)</f>
         <v>2726.10033444816</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>25400</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <f aca="false">D20/($B$5+D20)*$B$4</f>
         <v>2.36779661016949</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">F20 / ($B$4/$B$6)</f>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20 / ($B$4/$B$6)</f>
         <v>2938.93785310734</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>32660</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <f aca="false">D21/($B$5+D21)*$B$4</f>
         <v>2.52644163150492</v>
       </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">F21 / ($B$4/$B$6)</f>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E21 / ($B$4/$B$6)</f>
         <v>3135.84997655884</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>42340</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <f aca="false">D22/($B$5+D22)*$B$4</f>
         <v>2.66950706916316</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">F22 / ($B$4/$B$6)</f>
+      <c r="F22" s="1" t="n">
+        <f aca="false">E22 / ($B$4/$B$6)</f>
         <v>3313.42453190676</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <v>-10</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>55340</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <f aca="false">D23/($B$5+D23)*$B$4</f>
         <v>2.79494949494949</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">F23 / ($B$4/$B$6)</f>
+      <c r="F23" s="1" t="n">
+        <f aca="false">E23 / ($B$4/$B$6)</f>
         <v>3469.12519130701</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <v>-15</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>72980</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <f aca="false">D24/($B$5+D24)*$B$4</f>
         <v>2.90231381055676</v>
       </c>
-      <c r="H24" s="1" t="n">
-        <f aca="false">F24 / ($B$4/$B$6)</f>
+      <c r="F24" s="1" t="n">
+        <f aca="false">E24 / ($B$4/$B$6)</f>
         <v>3602.38708122439</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <v>-20</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>97120</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <f aca="false">D25/($B$5+D25)*$B$4</f>
         <v>2.99193427931292</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <f aca="false">F25 / ($B$4/$B$6)</f>
+      <c r="F25" s="1" t="n">
+        <f aca="false">E25 / ($B$4/$B$6)</f>
         <v>3713.62509335325</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <v>-25</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>130400</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <f aca="false">D26/($B$5+D26)*$B$4</f>
         <v>3.06495726495726</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <f aca="false">F26 / ($B$4/$B$6)</f>
+      <c r="F26" s="1" t="n">
+        <f aca="false">E26 / ($B$4/$B$6)</f>
         <v>3804.26210826211</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
         <v>-30</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>177000</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <f aca="false">D27/($B$5+D27)*$B$4</f>
         <v>3.12352941176471</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <f aca="false">F27 / ($B$4/$B$6)</f>
+      <c r="F27" s="1" t="n">
+        <f aca="false">E27 / ($B$4/$B$6)</f>
         <v>3876.96256684492</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
         <v>-35</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243120</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <f aca="false">D28/($B$5+D28)*$B$4</f>
         <v>3.16962705436157</v>
       </c>
-      <c r="H28" s="1" t="n">
-        <f aca="false">F28 / ($B$4/$B$6)</f>
+      <c r="F28" s="1" t="n">
+        <f aca="false">E28 / ($B$4/$B$6)</f>
         <v>3934.17951959545</v>
       </c>
     </row>
@@ -598,6 +1518,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -612,7 +1533,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -635,7 +1556,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
